--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3712.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3712.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.34445589730777</v>
+        <v>1.384502291679382</v>
       </c>
       <c r="B1">
-        <v>2.80620842065356</v>
+        <v>3.698095560073853</v>
       </c>
       <c r="C1">
-        <v>6.807869144071223</v>
+        <v>3.981334924697876</v>
       </c>
       <c r="D1">
-        <v>2.002656360869284</v>
+        <v>1.696511507034302</v>
       </c>
       <c r="E1">
-        <v>1.036368858103072</v>
+        <v>1.063867688179016</v>
       </c>
     </row>
   </sheetData>
